--- a/biology/Botanique/Iris_hoogiana/Iris_hoogiana.xlsx
+++ b/biology/Botanique/Iris_hoogiana/Iris_hoogiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Iris de Hoog - Iris hoogiana - est une plante herbacée vivace de la famille des iridacées, originaire du Turkestan.
 Nom en Russe : Ирис Гуга
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle dispose d'un rhizome, mais qui a tendance à se contracter vers une forme bulbeuse : il s'agit en fait d'une espèce intermédiaire entre les iris rhizomateux et les iris bulbeux.
 La floraison, de courte durée, a lieu d'avril à mai. La fleur, de couleur lavande prononcée, comporte trois grands sépales avec une crête jaune et trois pétales de plus petite taille.
-Cette espèce compte 44 chromosomes[1].
+Cette espèce compte 44 chromosomes.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1913, l'horticulteur néerlandais de Haarlem, C. G. van Tubergen, envoie des rhizomes d'iris en provenance du Turkestan à William Rickatson Dykes, qui, en remerciement, dédie cette espèce à ses neveux, les frères Hoog, qui ont pris sa succession.
 </t>
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette belle espèce d'iris est originaire du Turkestan : Kazakhstan, Kirghizistan, Ouzbékistan, Tadjikistan et Turkménistan.
 Elle est assez répandue en culture horticole et de nombreuses pépinières la commercialisent avec des obtentions en nombre dont :
